--- a/04_memo/map05.xlsx
+++ b/04_memo/map05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72ACA67-D8C2-47D3-A6AF-1D32DC24A737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{739AD883-1FCC-4E14-8C05-2188EF829453}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1355,7 +1355,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="U17" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
         <v>1</v>

--- a/04_memo/map05.xlsx
+++ b/04_memo/map05.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Graduation\04_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{739AD883-1FCC-4E14-8C05-2188EF829453}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1055BA5-D349-4B2A-BF91-B0E86D0911C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1355,7 +1355,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1412,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -1445,13 +1445,13 @@
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -1486,13 +1486,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="3">
         <v>1</v>
@@ -1531,40 +1531,40 @@
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
         <v>1</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1600,28 +1600,28 @@
         <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
       </c>
       <c r="T6" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" s="4">
         <v>0</v>
@@ -1675,19 +1675,19 @@
         <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="3">
         <v>1</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1"/>
     </row>
@@ -1708,10 +1708,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
         <v>1</v>
@@ -1768,10 +1768,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10" s="1">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
         <v>1</v>
@@ -1981,13 +1981,13 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -2044,22 +2044,22 @@
         <v>1</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" s="4">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1"/>
     </row>
@@ -2128,19 +2128,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -2173,10 +2173,10 @@
         <v>1</v>
       </c>
       <c r="Q14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
         <v>1</v>
@@ -2200,13 +2200,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S15" s="1">
         <v>1</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" s="1">
         <v>0</v>
@@ -2272,19 +2272,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2320,10 +2320,10 @@
         <v>1</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="3">
         <v>0</v>
@@ -2341,19 +2341,19 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -2395,10 +2395,10 @@
         <v>2</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U17" s="1">
         <v>1</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1"/>
     </row>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -2452,13 +2452,13 @@
         <v>1</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
         <v>1</v>
@@ -2467,13 +2467,13 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1">
         <v>0</v>
@@ -2486,6 +2486,9 @@
     <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
       </c>
       <c r="X19" s="1"/>
     </row>
@@ -2494,7 +2497,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A12:K18 M4:W10">
+  <conditionalFormatting sqref="A12:K18 M4:W10 D19">
     <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
       <formula>10</formula>
     </cfRule>

--- a/04_memo/map05.xlsx
+++ b/04_memo/map05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1055BA5-D349-4B2A-BF91-B0E86D0911C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D70148D-7475-4592-974D-7E138D93ED6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -712,7 +712,3441 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="481">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -1355,7 +4789,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1409,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1421,13 +4855,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -1439,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
@@ -1448,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
@@ -1457,21 +4891,21 @@
         <v>1</v>
       </c>
       <c r="R4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="3">
         <v>1</v>
       </c>
       <c r="T4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>1</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1480,67 +4914,67 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
+      <c r="D5" s="3">
+        <v>11</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
         <v>9</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
       </c>
       <c r="S5" s="1">
         <v>1</v>
       </c>
-      <c r="T5" s="1">
-        <v>1</v>
+      <c r="T5" s="3">
+        <v>11</v>
       </c>
       <c r="U5" s="1">
         <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
         <v>1</v>
@@ -1552,52 +4986,52 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -1606,13 +5040,13 @@
         <v>0</v>
       </c>
       <c r="T6" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
         <v>0</v>
@@ -1624,67 +5058,67 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>2</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
       </c>
       <c r="R7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
         <v>1</v>
       </c>
       <c r="T7" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U7" s="1">
         <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
         <v>1</v>
@@ -1702,22 +5136,22 @@
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1734,29 +5168,29 @@
       <c r="N8" s="1">
         <v>1</v>
       </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
         <v>0</v>
       </c>
       <c r="R8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
         <v>1</v>
       </c>
       <c r="T8" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U8" s="1">
         <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
         <v>1</v>
@@ -1774,24 +5208,24 @@
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
         <v>0</v>
       </c>
       <c r="K9" s="1">
@@ -1803,32 +5237,32 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
       </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>1</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0</v>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U9" s="1">
         <v>1</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="1">
         <v>1</v>
@@ -1837,28 +5271,28 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1878,58 +5312,58 @@
       <c r="N10" s="1">
         <v>0</v>
       </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>1</v>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
       </c>
       <c r="R10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1">
         <v>1</v>
       </c>
       <c r="T10" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -1953,29 +5387,29 @@
       <c r="O11" s="1">
         <v>0</v>
       </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2</v>
+      </c>
+      <c r="R11" s="1">
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>1</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>5</v>
       </c>
       <c r="U11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1"/>
     </row>
@@ -1990,19 +5424,19 @@
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
       </c>
       <c r="H12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -2022,23 +5456,23 @@
       <c r="N12" s="1">
         <v>0</v>
       </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>1</v>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
       </c>
       <c r="R12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
         <v>1</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U12" s="1">
         <v>1</v>
@@ -2053,73 +5487,73 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>6</v>
       </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>6</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
       <c r="O13" s="1">
-        <v>2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>1</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="1"/>
     </row>
@@ -2134,19 +5568,19 @@
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -2166,23 +5600,23 @@
       <c r="N14" s="1">
         <v>1</v>
       </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>1</v>
+      <c r="O14" s="5">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
       </c>
       <c r="R14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
         <v>1</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U14" s="1">
         <v>1</v>
@@ -2197,145 +5631,145 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
         <v>0</v>
       </c>
       <c r="R15" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
         <v>1</v>
       </c>
       <c r="T15" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1"/>
     </row>
@@ -2344,67 +5778,67 @@
         <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
+      <c r="D17" s="3">
+        <v>11</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>7</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>2</v>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="T17" s="3">
+        <v>11</v>
       </c>
       <c r="U17" s="1">
         <v>1</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1">
         <v>1</v>
@@ -2416,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2428,13 +5862,13 @@
         <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -2446,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
@@ -2455,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="1">
         <v>1</v>
@@ -2464,21 +5898,21 @@
         <v>1</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="3">
         <v>1</v>
       </c>
       <c r="T18" s="3">
-        <v>1</v>
-      </c>
-      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
         <v>1</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="3">
         <v>1</v>
       </c>
       <c r="X18" s="1"/>
@@ -2486,9 +5920,6 @@
     <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>4</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
       </c>
       <c r="X19" s="1"/>
     </row>
@@ -2497,7 +5928,1401 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A12:K18 M4:W10 D19">
+  <conditionalFormatting sqref="M4:N4 M6:N6 A18:K18 R7:S8 R4:T4 R10:S10 M10:N10 A12:C17 M7:M9 H12:K15 E12:F15">
+    <cfRule type="cellIs" dxfId="480" priority="534" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="479" priority="535" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="478" priority="536" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="477" priority="537" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="476" priority="538" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="475" priority="539" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="474" priority="540" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="473" priority="541" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="472" priority="542" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="471" priority="543" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="470" priority="544" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="469" priority="545" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="468" priority="546" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:K4 A6:I6 A10:C10 A11:K11 K6:K9 H10:L10 A7:C8 H7:I8 A5:D5 E7:F8 E10:F10">
+    <cfRule type="cellIs" dxfId="467" priority="521" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="466" priority="522" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="465" priority="523" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="464" priority="524" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="463" priority="525" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="462" priority="526" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="461" priority="527" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="528" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="459" priority="529" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="458" priority="530" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="457" priority="531" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="456" priority="532" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="455" priority="533" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:N12 M18:N18 R12:S12 R18:T18 L11:M11 M13:N15 R14:S15">
+    <cfRule type="cellIs" dxfId="454" priority="508" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="453" priority="509" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="452" priority="510" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="451" priority="511" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="450" priority="512" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="449" priority="513" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="448" priority="514" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="447" priority="515" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="446" priority="516" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="445" priority="517" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="444" priority="518" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="443" priority="519" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="520" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5 M5 K5">
+    <cfRule type="cellIs" dxfId="441" priority="495" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="440" priority="496" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="439" priority="497" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="438" priority="498" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="437" priority="499" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="500" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="435" priority="501" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="434" priority="502" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="433" priority="503" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="432" priority="504" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="431" priority="505" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="430" priority="506" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="429" priority="507" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17 K17">
+    <cfRule type="cellIs" dxfId="428" priority="482" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="427" priority="483" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="426" priority="484" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="425" priority="485" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="486" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="423" priority="487" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="422" priority="488" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="421" priority="489" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="420" priority="490" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="419" priority="491" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="492" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="417" priority="493" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="416" priority="494" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:P12 O18:P18 O14:P15">
+    <cfRule type="cellIs" dxfId="415" priority="443" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="414" priority="444" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="413" priority="445" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="446" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="411" priority="447" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="410" priority="448" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="409" priority="449" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="408" priority="450" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="407" priority="451" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="452" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="405" priority="453" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="404" priority="454" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="455" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4 O7:P8 O10:P10 O6">
+    <cfRule type="cellIs" dxfId="402" priority="430" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="401" priority="431" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="432" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="399" priority="433" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="398" priority="434" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="435" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="396" priority="436" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="395" priority="437" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="438" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="393" priority="439" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="392" priority="440" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="391" priority="441" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="390" priority="442" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12:W12 U14:W18">
+    <cfRule type="cellIs" dxfId="389" priority="391" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="392" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="387" priority="393" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="386" priority="394" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="395" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="384" priority="396" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="383" priority="397" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="398" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="381" priority="399" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="380" priority="400" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="401" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="378" priority="402" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="377" priority="403" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:W8 U10:W10">
+    <cfRule type="cellIs" dxfId="376" priority="378" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="375" priority="379" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="374" priority="380" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="381" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="372" priority="382" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="371" priority="383" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="384" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="369" priority="385" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="368" priority="386" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="387" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="366" priority="388" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="365" priority="389" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="390" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="cellIs" dxfId="363" priority="365" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="362" priority="366" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="367" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="360" priority="368" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="359" priority="369" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="370" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="357" priority="371" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="356" priority="372" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="373" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="374" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="353" priority="375" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="376" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="351" priority="377" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="350" priority="352" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="353" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="354" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="347" priority="355" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="356" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="345" priority="357" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="344" priority="358" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="359" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="360" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="341" priority="361" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="362" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="339" priority="363" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="364" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:W11">
+    <cfRule type="cellIs" dxfId="337" priority="339" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="340" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="335" priority="341" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="342" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="333" priority="343" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="344" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="345" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="346" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="329" priority="347" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="348" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="327" priority="349" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="350" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="351" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L9">
+    <cfRule type="cellIs" dxfId="324" priority="326" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="323" priority="327" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="328" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="329" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="330" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="331" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="332" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="317" priority="333" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="334" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="315" priority="335" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="336" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="337" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="338" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:L15 L17:L18">
+    <cfRule type="cellIs" dxfId="311" priority="313" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="314" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="315" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="316" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="317" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="318" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="305" priority="319" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="320" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="321" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="322" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="323" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="324" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="299" priority="325" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 H9:I9 E9:F9">
+    <cfRule type="cellIs" dxfId="298" priority="300" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="297" priority="301" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="302" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="303" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="304" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="293" priority="305" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="306" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="307" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="308" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="309" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="310" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="287" priority="311" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="312" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J8">
+    <cfRule type="cellIs" dxfId="285" priority="287" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="288" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="289" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="290" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="291" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="292" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="279" priority="293" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="294" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="295" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="296" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="275" priority="297" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="298" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="299" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="cellIs" dxfId="272" priority="274" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="275" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="276" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="277" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="278" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="279" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="280" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="281" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="282" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="283" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="284" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="285" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="286" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:P9 R9:S9 U9:W9">
+    <cfRule type="cellIs" dxfId="259" priority="261" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="262" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="263" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="264" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="265" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="266" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="267" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="268" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="269" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="270" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="271" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="272" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="273" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13:P13 R13:S13 U13:W13">
+    <cfRule type="cellIs" dxfId="246" priority="248" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="249" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="250" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="251" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="252" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="253" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="254" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="255" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="256" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="257" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="258" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="259" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="260" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:H5">
+    <cfRule type="cellIs" dxfId="233" priority="222" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="223" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="224" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="225" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="226" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="227" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="228" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="229" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="230" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="231" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="232" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="233" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="234" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:P5 R5:S5">
+    <cfRule type="cellIs" dxfId="220" priority="209" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="210" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="211" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="212" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="213" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="215" priority="214" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="215" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="216" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="217" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="218" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="219" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="220" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="221" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:Q5">
+    <cfRule type="cellIs" dxfId="207" priority="196" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="197" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="198" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="199" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="200" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="201" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="202" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="203" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="204" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="205" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="206" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="207" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="208" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18">
+    <cfRule type="cellIs" dxfId="194" priority="183" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="184" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="185" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="186" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="187" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="188" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="189" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="190" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="191" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="192" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="193" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="194" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="195" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17:S17">
+    <cfRule type="cellIs" dxfId="181" priority="170" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="171" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="172" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="173" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="174" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="175" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="176" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="177" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="178" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="179" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="180" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="181" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="182" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:I17">
+    <cfRule type="cellIs" dxfId="168" priority="157" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="158" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="159" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="160" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="161" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="162" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="163" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="164" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="165" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="166" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="167" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="168" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="169" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:S6">
+    <cfRule type="cellIs" dxfId="155" priority="144" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="145" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="146" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="147" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="148" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="149" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="151" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="152" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="153" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="154" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="155" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="156" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:S16">
+    <cfRule type="cellIs" dxfId="142" priority="131" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="132" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="133" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="134" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="135" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="138" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="139" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="140" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="141" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="143" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7:N8">
+    <cfRule type="cellIs" dxfId="129" priority="118" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="119" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="120" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="121" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="122" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="123" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="124" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="125" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="126" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="127" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="128" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="129" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="130" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G10">
+    <cfRule type="cellIs" dxfId="116" priority="105" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="106" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="107" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="108" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="109" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="110" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="112" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="113" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="114" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="115" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="116" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="117" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G15">
+    <cfRule type="cellIs" dxfId="103" priority="92" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="93" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="94" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="95" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="96" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="101" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="102" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="103" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="104" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7:Q10">
+    <cfRule type="cellIs" dxfId="90" priority="79" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="80" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="81" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="82" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="84" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="86" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="87" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="88" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="89" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="91" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:Q15">
+    <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="75" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D10">
+    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D15">
+    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D17">
     <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -2538,7 +7363,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L10 A11:K11">
+  <conditionalFormatting sqref="T5:T10">
     <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -2579,7 +7404,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:W18">
+  <conditionalFormatting sqref="T12:T17">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>

--- a/04_memo/map05.xlsx
+++ b/04_memo/map05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D70148D-7475-4592-974D-7E138D93ED6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC067FA0-3FEC-4F08-8802-DBE7FEC070AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -4789,7 +4789,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4944,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M5" s="3">
         <v>1</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>

--- a/04_memo/map05.xlsx
+++ b/04_memo/map05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC067FA0-3FEC-4F08-8802-DBE7FEC070AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4507958A-D23F-468E-98F1-84C586B7B778}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -4789,7 +4789,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -4858,13 +4858,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -4876,19 +4876,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
         <v>1</v>
@@ -4897,16 +4897,16 @@
         <v>1</v>
       </c>
       <c r="T4" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -4929,13 +4929,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -4959,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>1</v>
@@ -4977,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1"/>
     </row>
@@ -5121,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1"/>
     </row>
@@ -5193,28 +5193,28 @@
         <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
         <v>11</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -5250,22 +5250,22 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>11</v>
       </c>
       <c r="U9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1"/>
     </row>
@@ -5337,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1"/>
     </row>
@@ -5481,28 +5481,28 @@
         <v>1</v>
       </c>
       <c r="W12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3">
         <v>11</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5538,22 +5538,22 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="3">
         <v>11</v>
       </c>
       <c r="U13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1"/>
     </row>
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="W14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="1"/>
     </row>
@@ -5697,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="1"/>
     </row>
@@ -5793,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -5817,13 +5817,13 @@
         <v>1</v>
       </c>
       <c r="O17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1">
         <v>1</v>
@@ -5841,22 +5841,22 @@
         <v>1</v>
       </c>
       <c r="W17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="1"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -5865,19 +5865,19 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
@@ -5889,13 +5889,13 @@
         <v>1</v>
       </c>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>1</v>
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U18" s="1">
         <v>1</v>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="W18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" s="1"/>
     </row>
